--- a/crawling2/static/result.xlsx
+++ b/crawling2/static/result.xlsx
@@ -424,280 +424,280 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>하효림, 황두연 실업배구로 복귀, 한국실업배구 종합선수권 대회 2일 단양서 개막.</t>
+          <t>JP모건 "애플 맥북 부품 공급 정상화"</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>페퍼저축은행 배구단, 순천 대석초와 유소년배구교실 MOU</t>
+          <t>"맥북프로, 가을 신제품도 TSMC 5나노칩 탑재"</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>여자배구 AI페퍼스, 순천대석초와 유소년 배구교실 MOU 체결</t>
+          <t>아이폰 이어 맥북까지..애플, '셀프 수리' 확대</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'스몰 V리그?' 프로스타 대거 영입, 실업 배구도 뜨겁다</t>
+          <t>애플 맥북 제조사 된 中 윙텍, 축구장 80배 PC 공장 건설 중</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>스포츠 강군 단양에서 가을 배구대회 대잔치</t>
+          <t>애플 신형 맥북 프로는 아직 개발 중?</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>김연경 '역대 최고 여자배구선수 TOP20' 1위</t>
+          <t>[사용기] M2 맥북 에어, 애플의 자신감과 치밀함</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>단양군 전국 배구대회 줄이어</t>
+          <t>아이폰·맥북 보안 뚫린 애플.."소프트웨어 업데이트 즉시 해야"</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"가을배구 설렌다"... 단양서 전국대회배구 잇따라 개최</t>
+          <t>[보니하니]새 칩 M2 성능 입증한 '맥북 에어'</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>권순찬 감독식 '낮고 빠르게', 스피드 배구 '착각' 우려</t>
+          <t>애플 맥북 세 번째 조립업체 중국 윙텍, 인수합병과 내수시장 발판 급성장</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>프로배구 우리카드-한국전력 트레이드, 사령탑들의 의중은</t>
+          <t>애플, M1칩 맥북도 셀프수리 프로그램 적용</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>여자배구 신인 드래프트 9월 5일..귀화 선수 어르헝 어디 품에</t>
+          <t>中 눈치보던 애플마저..맥북 애플워치, 베트남서 만든다</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>'레전드' 최태웅 감독이 전한 韓배구 현실 그리고 일침 "훈련이 거꾸로 가고 있어"</t>
+          <t>'유튜브 시대' 걸맞는 M2 맥북 에어..성능은 장점, 발열은 단점</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>단양군, 전국 단위 배구대회 다채롭게 열려</t>
+          <t>애플, 탈중국 속도내나.."베트남서 워치·맥북 생산 검토"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"배구경기서 N95 마스크 착용 왜 하냐?" 中 누리꾼들 논쟁(종합)</t>
+          <t>"애플은 대만 반도체 구세주?" 삼성에 밀린 '3나노 기술' 맥북에 적용되나 [비즈360]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>순천 배구코트 '토종 아포짓' 바람 부는 까닭은?</t>
+          <t>[정옥재의 스마트 라이프] 맥북 에어 리뷰..평평해지고 더 얇아졌다</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FIVB 세계배구선수권대회, 쿠팡플레이 독점 생중계</t>
+          <t>M2 맥북에어와 맥북프로 13형 연이어 출시..뭘 살까?</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>컵대회에서 떠오른 새 배구스타들..젊은 에너지 가득</t>
+          <t>애플, 애플워치·맥북프로도 베트남서 시험생산</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"어르헝은 한국 여자배구의 대들보 될 것"</t>
+          <t>리누스 토발즈 "리눅스5.19, 애플 M1 맥북으로 배포"</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>한국 男배구 U18, 2023 세계유스남자배구 선수권대회 출전 확정.</t>
+          <t>벨킨, M2 맥북 액세서리 솔루션 6종 공개</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>달라진 삼성화재, '배구명가' 부활 기대해도 될까</t>
+          <t>[써보니] 애플 맥북에어, '가성비'보단 '가심비'에 초점</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>마스크 쓰고 뛴 중국 女배구팀.."정치 위한 무책임한 처사" 논쟁</t>
+          <t>애플, 베트남서 애플워치·맥북도 생산하나…폭스콘·럭스쉐어, 시제품 생산</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>남자 배구 인기 끝났다고요? '한국전력 김수현'이 있습니다!</t>
+          <t>"애플, 베트남서 애플워치·맥북 생산 추진" 니케이아시아 보도</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>중국 女배구팀 국제대회 마스크 누가 씌웠나.."과도한 방역" 시끌</t>
+          <t>[위클리 스마트] 신형 맥북에어, 성능·디자인 '역시'·가성비 '글쎄'</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>전남대 용봉배구팀 여자부 준우승</t>
+          <t>애플 '脫중국' 신호탄 쐈다…베트남서 애플워치·맥북 생산</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AI페퍼스, 여자배구 신인드래프트 어르헝 ‘눈도장’</t>
+          <t>애플, 10월에도 스페셜 이벤트 개최.. 신형 아이패드 프로·M2 맥북 프로 공개 전망</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>김연경 女배구 현역 세계최고스타 선정..역대 3위</t>
+          <t>아이폰 이어 맥북 에어·프로 '자가 수리'…애플, 셀프 서비스 수리 지원 범위 확대</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>스포츠메카 충북 단양에서 9~11월 전국 단위 배구대회 연이어 개최</t>
+          <t>"맥북 즐거움이 두 배"…유저 필수템도 뜬다</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022 홍천 전국 유소년 클럽 배구대회 성료</t>
+          <t>애플, 베트남에서 애플 워치와 맥북 생산위해 협상 진행</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>대한항공, 프로배구 컵대회 5번째 우승..한전에 3-0 완승</t>
+          <t>[리뷰] 새로운 M2 칩과 디자인으로 돌아왔다, 애플 맥북 에어 2022</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>여자배구, 세계여자배구선수권대회 후보엔트리 확정</t>
+          <t>[까다로운 리뷰] M1 사용자의 M2 맥북 에어 사용기</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>여자부가 일으킨 프로배구 열기.. 이번엔 남자부 차례다</t>
+          <t>맥북에어 M2, 성능·디자인·가격 모두 '탈에어급' [잇써보니]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>여자배구 신인 드래프트, 3년 만에 대면으로 개최</t>
+          <t>[PLAY IT] 새 M 시리즈 성능은?…애플 M2 맥북에어 써보니</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>페퍼저축은행 배구팬들, '트럭 시위'.. "김형실 감독 경질' 요구</t>
+          <t>애플 신형 14·16인치 '맥북 프로'…TSMC 3나노 'M2 프로' 탑재</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>준우승에도 빛난 '배구천재' 배유나 "아포짓도 자신 있었다"</t>
+          <t>애플, 베트남서 애플워치·맥북 등 생산 논의… '탈중국' 가속</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>여자배구 전성시대..'배구여제' 김연경과 '곰돌희' 김희진, K팝 스타 부럽지 않다 [유진형의 현장 1mm]</t>
+          <t>발열? 속도 저하? 그래도 'M2 맥북에어'를 사야 하는 이유</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>임동혁+정지석 60점 합작 대한항공, 프로배구 컵대회 결승 선착</t>
+          <t>노트북 시장 다크호스 'M2 맥북에어' 나온다</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>단양 ‘가을 맞이’ 배구 시즌 돌입</t>
+          <t>애플 맥북에어 M2 스타라이트 사용해보니 [백문이 불여IT견]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>복고풍 배구 예고, "때려라, 우린 어떻게든 막을 것이다" [KOVO컵]</t>
+          <t>애플, M2 맥북에어·맥북프로서 인텔 칩 완전 배제</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>젊은 세터 향한 꿀눈빛..배구 여제의 부드러운 카리스마</t>
+          <t>애플워치·맥북, 베트남서 첫 생산…탈중국 주시</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>'3년 만의 배구 꿈나무 축제' 유소년 클럽 배구 대회 열전 마무리</t>
+          <t>M2 맥북에어, 전작과 어떤 점이 달라졌나</t>
         </is>
       </c>
     </row>
